--- a/biology/Biologie cellulaire et moléculaire/ADN_polymérases_thermostables/ADN_polymérases_thermostables.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ADN_polymérases_thermostables/ADN_polymérases_thermostables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADN_polym%C3%A9rases_thermostables</t>
+          <t>ADN_polymérases_thermostables</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ADN polymérases thermostables sont des ADN polymérases issues d'organismes thermophiles, comme certaines bactéries de l'ordre des Archaea et leurs pathogènes. Ces polymérases sont stables à hautes températures (env. 100°C) et peuvent donc être utilisées pour la réaction en chaîne par polymérase (angl. PCR) et autres méthodes permettant l'amplification et la modification de l'ADN.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ADN_polym%C3%A9rases_thermostables</t>
+          <t>ADN_polymérases_thermostables</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Polymérases bactériennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principales polymérases thermostables issues de bactéries sont la Taq polymérase, la Tfl polymérase, la Tma polymérase, la Tne polymérase et la Tth polymérase [1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principales polymérases thermostables issues de bactéries sont la Taq polymérase, la Tfl polymérase, la Tma polymérase, la Tne polymérase et la Tth polymérase .
 Ces polymérases bactériennes sont de type A. Elles ont une activité polymérase 5'→3', une activité exonucléase 5'→3' et ajoutent une adénosine à l'extrémité 3' de l'ADN synthétisé (angl. sticky ends). La processivité (angl. processivity) est une propriété des ADN polymérases définie comme le nombre moyen de paires de bases incorporées par la polymérase avant de se détacher de l'ADN servant de matrice (angl. template). Une processivité trop petite limite donc la distance maximale entre les amorces utilisées dans une réaction de qPCR. La processivité de la Taq polymérase est à peu près de 200 paires de bases.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ADN_polym%C3%A9rases_thermostables</t>
+          <t>ADN_polymérases_thermostables</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Polymérases d'archées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ADN polymérases thermostables d'Archaea les plus utilisées sont la Pfu polymérase[1], la Pwo polymérase, la KOD polymérase[4], la Tli polymérase (synonyme Vent)[5], la Tag polymérase[6], la Tce polymérase[7], la Tgo polymérase[8], la TNA1 polymérase[9], la Tpe polymérase[10], la Tthi polymérase[11], la Neq polymérase[12] et la Pab polymérase[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ADN polymérases thermostables d'Archaea les plus utilisées sont la Pfu polymérase, la Pwo polymérase, la KOD polymérase, la Tli polymérase (synonyme Vent), la Tag polymérase, la Tce polymérase, la Tgo polymérase, la TNA1 polymérase, la Tpe polymérase, la Tthi polymérase, la Neq polymérase et la Pab polymérase.
 </t>
         </is>
       </c>
